--- a/CSharpCheatSheet.xlsx
+++ b/CSharpCheatSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\CheatSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9E5B5AA-FD27-400F-AF16-75A8D4463A40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E1284C-726E-425C-B961-18F4E4558D28}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{AB3ACF02-B8F8-4372-8120-4E3760E2D306}"/>
   </bookViews>
@@ -205,12 +205,262 @@
         </r>
       </text>
     </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{05A4BF60-84B8-4C23-BAE9-EBC7CBF436D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+  &lt;connectionStrings&gt;
+    &lt;add name="</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GetReal</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>" connectionString="Data Source = localhost; Initial Catalog=</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>getreal</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">; integrated security = true" providerName="System.Data.SqlClient"/&gt;
+  &lt;/connectionStrings&gt;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">OR
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>&lt;connectionStrings&gt;
+        &lt;add name="</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GetReal</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>" connectionString="server=(local);database=</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>getreal</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>;integrated security= SSPI;" /&gt;
+&lt;/connectionStrings&gt;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{A5A8BF5F-47D5-41AF-848D-E7E535633B22}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy:
+//Id Example</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+        [Display(Name = </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"Id"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)]
+        [Required(ErrorMessage = "</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>{0} is required")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">]
+        [Key]
+        public int ID { get; set; }
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">//Min Value Length Example
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">        [Display(Name = "Category name")]
+        [Required(ErrorMessage = "{0} is required")]
+        [StringLength(int.MaxValue, MinimumLength = 2, ErrorMessage = "{0} length should be longer than {2} characters long.")]
+        public string CategoryName { get; set; }
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">//Mix-Max String Length Example
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">        [Display(Name = "Teaser")]
+        [Required(ErrorMessage = "{0} is required")]
+        [StringLength(150, MinimumLength = 2, ErrorMessage = "{0} length should be between {2} and {1}.")]
+        public string Teaser { get; set; }
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Ntier References</t>
   </si>
@@ -219,6 +469,12 @@
   </si>
   <si>
     <t>Types / ParmStruct Code</t>
+  </si>
+  <si>
+    <t>Webconfig connection string</t>
+  </si>
+  <si>
+    <t>Data Annotations Examples</t>
   </si>
 </sst>
 </file>
@@ -603,15 +859,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1914F946-9DA5-4C77-8D1F-D28FF83408A1}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -629,6 +885,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CSharpCheatSheet.xlsx
+++ b/CSharpCheatSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\CheatSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E1284C-726E-425C-B961-18F4E4558D28}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CDAF22-5205-439E-8305-9D033CC9FE3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{AB3ACF02-B8F8-4372-8120-4E3760E2D306}"/>
+    <workbookView xWindow="8736" yWindow="1320" windowWidth="12960" windowHeight="9072" xr2:uid="{AB3ACF02-B8F8-4372-8120-4E3760E2D306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
           </rPr>
           <t xml:space="preserve">
 DAL --&gt; Types
-Repo (SQL) --&gt; DAL, Model, Service, Types
+Repo (SQL) --&gt; DAL, Model, Types
 Service (BL) --&gt; Model, Repo 
 FrontEnd --&gt; Model, Service</t>
         </r>
@@ -350,7 +350,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Jeremy:
+          <t xml:space="preserve">
 //Id Example</t>
         </r>
         <r>
@@ -413,7 +413,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">//Min Value Length Example
+          <t xml:space="preserve">//Min Value String Length Example
 </t>
         </r>
         <r>
@@ -424,9 +424,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">        [Display(Name = "Category name")]
-        [Required(ErrorMessage = "{0} is required")]
         [StringLength(int.MaxValue, MinimumLength = 2, ErrorMessage = "{0} length should be longer than {2} characters long.")]
-        public string CategoryName { get; set; }
 </t>
         </r>
         <r>
@@ -437,6 +435,28 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>//Max Value String Length Example</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+        [Display(Name = "First name")]
+        [StringLength(10, ErrorMessage = "{0} cannot be longer than {1} characters long")]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">//Mix-Max String Length Example
 </t>
         </r>
@@ -448,10 +468,82 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">        [Display(Name = "Teaser")]
-        [Required(ErrorMessage = "{0} is required")]
         [StringLength(150, MinimumLength = 2, ErrorMessage = "{0} length should be between {2} and {1}.")]
-        public string Teaser { get; set; }
-</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">//Exact String Length Example
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">        [Display(Name = "Patient number")]
+        [StringLength(10, MinimumLength = 10, ErrorMessage = "{0} length should be exactly {1} characters long.")]
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{7DBD0E0A-A9E5-47BD-B70B-8A05D815F462}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+    public string FullName
+    {
+        get
+        {
+            return FirstName + " " + LastName;
+        }
+    }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{6C280B6A-4F1A-410C-9C80-A5B05211CD5C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+    public List&lt;PatientList&gt; GetAll()
+    {
+        DataAccess db = new DataAccess();
+        DataTable dt = db.Execute("Patient_GetAll");
+        List&lt;PatientList&gt; patients = new List&lt;PatientList&gt;();
+        foreach (DataRow row in dt.Rows)
+        {
+            patients.Add(new PatientList()
+            {
+                PatientNumber = row["PatientNumber"].ToString(),
+                FirstName = row["FirstName"].ToString(),
+                LastName = row["LastName"].ToString(),
+                City = row["City"].ToString(),
+                Province = row["Name"].ToString(),
+                Email = row["Email"].ToString()
+            });
+        }
+        return patients;
+    }</t>
         </r>
       </text>
     </comment>
@@ -460,7 +552,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Ntier References</t>
   </si>
@@ -475,6 +567,12 @@
   </si>
   <si>
     <t>Data Annotations Examples</t>
+  </si>
+  <si>
+    <t>Calculated field / full name prop</t>
+  </si>
+  <si>
+    <t>Repo getAll / select all / get all</t>
   </si>
 </sst>
 </file>
@@ -859,15 +957,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1914F946-9DA5-4C77-8D1F-D28FF83408A1}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -895,6 +993,16 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CSharpCheatSheet.xlsx
+++ b/CSharpCheatSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\CheatSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CDAF22-5205-439E-8305-9D033CC9FE3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14231AA-0E54-4E54-8C0E-AC18AF725BCE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8736" yWindow="1320" windowWidth="12960" windowHeight="9072" xr2:uid="{AB3ACF02-B8F8-4372-8120-4E3760E2D306}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9072" xr2:uid="{AB3ACF02-B8F8-4372-8120-4E3760E2D306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,6 +493,49 @@
         [StringLength(10, MinimumLength = 10, ErrorMessage = "{0} length should be exactly {1} characters long.")]
 </t>
         </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">//Int Range
+          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[Display(Name = "Commission rate")]
+        [Range(0.5, 0.8, ErrorMessage = "{0} must be between {1}% and {2}%")]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">//DataType Date
+          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>[DataType(DataType.Date)]
+        [DisplayFormat(DataFormatString = "{0:yyyy-MM-dd}", ApplyFormatInEditMode = true)]</t>
+        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="0" shapeId="0" xr:uid="{7DBD0E0A-A9E5-47BD-B70B-8A05D815F462}">
@@ -547,12 +590,113 @@
         </r>
       </text>
     </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{7F7FCB87-C1FF-4CF6-9D74-B68989EA26EE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+    @Html.DropDownListFor(model =&gt; model.Realtor.CompanyId, new SelectList(Model.Companies, "Value", "Text"), "Please select", new { @class = "form-control" })
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{6041AB60-FB32-411B-90D7-B44ED400BBF2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+    if (id == null)
+    {
+        return new HttpStatusCodeResult(HttpStatusCode.BadRequest);
+    }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{58905AB9-242E-475B-8C79-838078AD5D81}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+//Web.config &gt; in &lt;system.webServer&gt;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>&lt;!--Add to enable CORS--&gt;
+    &lt;httpProtocol&gt;
+      &lt;customHeaders&gt;
+        &lt;add name="Access-Control-Allow-Origin" value="*"/&gt;
+        &lt;add name="Access-Control-Allow-Methods" value="GET,PUT,POST,DELETE,OPTIONS"/&gt;
+        &lt;add name="Access-Control-Allow-Headers" value="Content-Type,Accept"/&gt;
+      &lt;/customHeaders&gt;
+    &lt;/httpProtocol&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{EB49BC56-45E4-4AFB-B49D-19B03FFD77BD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+//</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In webApiConfig </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+            // Web API configuration and services
+            GlobalConfiguration.Configuration.Formatters.JsonFormatter.SerializerSettings.ReferenceLoopHandling = Newtonsoft.Json.ReferenceLoopHandling.Ignore;
+            // Get rid of XML formatter and force JSON
+            config.Formatters.Remove(config.Formatters.XmlFormatter);//</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Ntier References</t>
   </si>
@@ -573,6 +717,18 @@
   </si>
   <si>
     <t>Repo getAll / select all / get all</t>
+  </si>
+  <si>
+    <t>Html DropDownListFor</t>
+  </si>
+  <si>
+    <t>If id is empty return http status 400</t>
+  </si>
+  <si>
+    <t>CORS</t>
+  </si>
+  <si>
+    <t>API to always return JSON</t>
   </si>
 </sst>
 </file>
@@ -957,15 +1113,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1914F946-9DA5-4C77-8D1F-D28FF83408A1}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -1003,6 +1159,26 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
